--- a/시장분석용_정보/시장분석용_4887033000.xlsx
+++ b/시장분석용_정보/시장분석용_4887033000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,31 +160,73 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202001 6139138085</t>
-  </si>
-  <si>
-    <t>202003 6139138085</t>
-  </si>
-  <si>
-    <t>202008 6139138085</t>
-  </si>
-  <si>
-    <t>202012 6139138085</t>
-  </si>
-  <si>
-    <t>202101 6139138085</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>6139138085 202001</t>
+  </si>
+  <si>
+    <t>6139138085 202003</t>
+  </si>
+  <si>
+    <t>6139138085 202008</t>
+  </si>
+  <si>
+    <t>6139138085 202012</t>
+  </si>
+  <si>
+    <t>6139138085 202101</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxNzAyIzUxIyQxIyQxIyQ4OSQzNjEwMDIjNzEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
   </si>
   <si>
     <t>참사랑의원</t>
   </si>
   <si>
-    <t>경상남도 함양군 유림면 화촌장항로 2</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxNzAyIzUxIyQxIyQxIyQ4OSQzNjEwMDIjNzEjJDEjJDgjJDgz</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>경상남도 함양군 유림면 화촌장항로 2 2층</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -497,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,43 +690,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>1452</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>49963721</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>6139138085</v>
       </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2">
+        <v>70</v>
+      </c>
+      <c r="J2">
         <v>4887033000</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
       </c>
       <c r="M2">
         <v>291864</v>
@@ -648,7 +828,7 @@
         <v>28350</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -660,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>47.09</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>52.91</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -675,69 +855,159 @@
         <v>0</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>47.09</v>
+      </c>
+      <c r="AA2">
+        <v>52.91</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>100</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
         <v>100</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>47.09</v>
+      </c>
+      <c r="BC2">
+        <v>52.91</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>47.09</v>
+      </c>
+      <c r="BH2">
+        <v>47.09</v>
+      </c>
+      <c r="BI2">
+        <v>100</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>44450</v>
+        <v>6016</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
         <v>202003</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>49963721</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>6139138085</v>
       </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3">
+        <v>70</v>
+      </c>
+      <c r="J3">
         <v>4887033000</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
       </c>
       <c r="M3">
         <v>576967</v>
@@ -749,7 +1019,7 @@
         <v>29125</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -767,23 +1037,23 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>50.64</v>
       </c>
       <c r="W3">
+        <v>42.92</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>6.44</v>
+      </c>
+      <c r="Z3">
         <v>85.84</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>7.73</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
       <c r="AB3">
         <v>0</v>
       </c>
@@ -791,54 +1061,144 @@
         <v>0</v>
       </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>6.44</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>85.84</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>7.73</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>100</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>85.84</v>
+      </c>
+      <c r="BB3">
+        <v>14.16</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>92.27</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>152429</v>
+        <v>19876</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
         <v>202008</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>49963721</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>6139138085</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4">
+        <v>70</v>
+      </c>
+      <c r="J4">
         <v>4887033000</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
       </c>
       <c r="M4">
         <v>844068</v>
@@ -850,19 +1210,19 @@
         <v>55233</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>90.53</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>90.53</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -877,69 +1237,159 @@
         <v>0</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>90.53</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>90.53</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>7.97</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>1.51</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>90.53</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>9.470000000000001</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>98.48999999999999</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>1.51</v>
+      </c>
+      <c r="BD4">
+        <v>90.53</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>7.97</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>239424</v>
+        <v>31039</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
         <v>202012</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>49963721</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6139138085</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5">
+        <v>70</v>
+      </c>
+      <c r="J5">
         <v>4887033000</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
       </c>
       <c r="M5">
         <v>209062</v>
@@ -954,93 +1404,183 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>20.92</v>
+      </c>
+      <c r="Z5">
         <v>79.08</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>79.08</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>20.92</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>100</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>20.92</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>79.08</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>79.08</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>20.92</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>79.08</v>
+      </c>
+      <c r="BI5">
+        <v>79.08</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>261253</v>
+        <v>33835</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
         <v>202101</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2021</v>
       </c>
-      <c r="E6">
-        <v>49963721</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>6139138085</v>
       </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6">
+        <v>70</v>
+      </c>
+      <c r="J6">
         <v>4887033000</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
       </c>
       <c r="M6">
         <v>1356126</v>
@@ -1052,7 +1592,7 @@
         <v>89067</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1061,48 +1601,138 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>57.71</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>20.58</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>21.71</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>21.71</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>20.58</v>
       </c>
-      <c r="Y6">
+      <c r="AO6">
         <v>57.71</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>79.42</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>20.58</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>21.71</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>20.58</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>57.71</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>21.71</v>
+      </c>
+      <c r="BG6">
+        <v>20.58</v>
+      </c>
+      <c r="BH6">
+        <v>20.58</v>
+      </c>
+      <c r="BI6">
+        <v>78.29000000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4887033000.xlsx
+++ b/시장분석용_정보/시장분석용_4887033000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>6139138085</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4887033000</v>
@@ -708,7 +612,7 @@
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>291864</v>
@@ -720,40 +624,40 @@
         <v>28350</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>47.09</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>52.91</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
-        <v>47.09</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>52.91</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -762,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -773,64 +677,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>100</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>100</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>6016</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202003</v>
@@ -842,10 +698,10 @@
         <v>6139138085</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4887033000</v>
@@ -854,7 +710,7 @@
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>576967</v>
@@ -866,7 +722,7 @@
         <v>29125</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -884,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>50.64</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>42.92</v>
+        <v>85.84</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>6.44</v>
+        <v>7.73</v>
       </c>
       <c r="Y3">
-        <v>85.84</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7.73</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -908,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -919,64 +775,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>6.44</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>85.84</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>7.73</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>100</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>19876</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202008</v>
@@ -988,10 +796,10 @@
         <v>6139138085</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4887033000</v>
@@ -1000,7 +808,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>844068</v>
@@ -1012,19 +820,19 @@
         <v>55233</v>
       </c>
       <c r="O4">
-        <v>9.470000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>90.53</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
-        <v>90.53</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1039,23 +847,23 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>90.53</v>
+      </c>
+      <c r="AC4">
         <v>9.470000000000001</v>
       </c>
-      <c r="Z4">
-        <v>90.53</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
         <v>0</v>
       </c>
@@ -1065,64 +873,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>90.53</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>7.97</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>1.51</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>90.53</v>
-      </c>
-      <c r="AS4">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>31039</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202012</v>
@@ -1134,10 +894,10 @@
         <v>6139138085</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4887033000</v>
@@ -1146,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>209062</v>
@@ -1161,44 +921,44 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>79.08</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>20.92</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>100</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>100</v>
-      </c>
-      <c r="X5">
-        <v>20.92</v>
-      </c>
-      <c r="Y5">
-        <v>79.08</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
         <v>0</v>
       </c>
@@ -1211,64 +971,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>79.08</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>20.92</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>100</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>33835</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202101</v>
@@ -1280,10 +992,10 @@
         <v>6139138085</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4887033000</v>
@@ -1292,7 +1004,7 @@
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>1356126</v>
@@ -1304,7 +1016,7 @@
         <v>89067</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1313,41 +1025,41 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>21.71</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>20.58</v>
+      </c>
+      <c r="X6">
         <v>57.71</v>
       </c>
-      <c r="S6">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>79.42</v>
+      </c>
+      <c r="AC6">
         <v>20.58</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>21.71</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>100</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
@@ -1355,54 +1067,6 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>21.71</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>20.58</v>
-      </c>
-      <c r="AN6">
-        <v>57.71</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>79.42</v>
-      </c>
-      <c r="AS6">
-        <v>20.58</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
         <v>0</v>
       </c>
     </row>
